--- a/Solina/Production/Input/GHI_2024-02-10.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-10.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2896.73</v>
+        <v>2896.43</v>
       </c>
       <c r="H2">
-        <v>6154.11</v>
+        <v>6152.96</v>
       </c>
       <c r="I2">
-        <v>718.49</v>
+        <v>718.61</v>
       </c>
       <c r="J2">
-        <v>724.1799999999999</v>
+        <v>724.11</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>724.1799999999999</v>
+        <v>724.11</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +872,7 @@
         <v>3.01</v>
       </c>
       <c r="I9">
-        <v>26.37</v>
+        <v>26.35</v>
       </c>
       <c r="J9">
         <v>4.37</v>
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>90.58</v>
+        <v>90.56999999999999</v>
       </c>
       <c r="I10">
-        <v>393.1</v>
+        <v>392.99</v>
       </c>
       <c r="J10">
-        <v>44.68</v>
+        <v>44.69</v>
       </c>
       <c r="K10">
-        <v>22.65</v>
+        <v>22.64</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.65</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,13 +951,13 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>233.25</v>
+        <v>233.23</v>
       </c>
       <c r="I11">
-        <v>621</v>
+        <v>620.88</v>
       </c>
       <c r="J11">
-        <v>70.05</v>
+        <v>70.06</v>
       </c>
       <c r="K11">
         <v>58.31</v>
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>357.98</v>
+        <v>357.93</v>
       </c>
       <c r="I12">
-        <v>726.4299999999999</v>
+        <v>726.28</v>
       </c>
       <c r="J12">
-        <v>84.44</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="K12">
-        <v>89.48999999999999</v>
+        <v>89.48</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>89.48999999999999</v>
+        <v>89.48</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>443.59</v>
+        <v>443.53</v>
       </c>
       <c r="I13">
-        <v>778.75</v>
+        <v>778.59</v>
       </c>
       <c r="J13">
-        <v>92.44</v>
+        <v>92.47</v>
       </c>
       <c r="K13">
-        <v>110.9</v>
+        <v>110.88</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>110.9</v>
+        <v>110.88</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>479.49</v>
+        <v>479.44</v>
       </c>
       <c r="I14">
-        <v>797.61</v>
+        <v>797.47</v>
       </c>
       <c r="J14">
-        <v>95.48</v>
+        <v>95.5</v>
       </c>
       <c r="K14">
-        <v>119.87</v>
+        <v>119.86</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>119.87</v>
+        <v>119.86</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,13 +1115,13 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>461.62</v>
+        <v>461.59</v>
       </c>
       <c r="I15">
-        <v>788.47</v>
+        <v>788.38</v>
       </c>
       <c r="J15">
-        <v>93.98</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="K15">
         <v>115.4</v>
@@ -1156,13 +1156,13 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>391.97</v>
+        <v>391.95</v>
       </c>
       <c r="I16">
-        <v>748.73</v>
+        <v>748.65</v>
       </c>
       <c r="J16">
-        <v>87.73999999999999</v>
+        <v>87.75</v>
       </c>
       <c r="K16">
         <v>97.98999999999999</v>
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>278.83</v>
+        <v>278.8</v>
       </c>
       <c r="I17">
-        <v>665.12</v>
+        <v>665</v>
       </c>
       <c r="J17">
-        <v>75.77</v>
+        <v>75.79000000000001</v>
       </c>
       <c r="K17">
-        <v>69.70999999999999</v>
+        <v>69.7</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>69.70999999999999</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,13 +1238,13 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>138.66</v>
+        <v>138.64</v>
       </c>
       <c r="I18">
-        <v>494.1</v>
+        <v>493.97</v>
       </c>
       <c r="J18">
-        <v>55.12</v>
+        <v>55.13</v>
       </c>
       <c r="K18">
         <v>34.66</v>
@@ -1282,7 +1282,7 @@
         <v>17.75</v>
       </c>
       <c r="I19">
-        <v>114.44</v>
+        <v>114.4</v>
       </c>
       <c r="J19">
         <v>14.41</v>
